--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Xuất Nhập KHO/Xuất Kho 2023/XK_LK_500_HUB_050123.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Xuất Nhập KHO/Xuất Kho 2023/XK_LK_500_HUB_050123.xlsx
@@ -22,14 +22,14 @@
     <sheet name="BM.06" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">BM.07!$A$1:$H$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">BM.07!$A$1:$H$56</definedName>
   </definedNames>
   <calcPr calcId="152511" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="165">
   <si>
     <t>STT</t>
   </si>
@@ -1137,7 +1137,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1381,6 +1381,72 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1408,67 +1474,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1480,7 +1486,40 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1501,40 +1540,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1582,15 +1594,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1630,8 +1633,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1654,28 +1681,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1699,29 +1726,14 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1736,15 +1748,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1787,7 +1790,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,7 +1842,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1888,7 +1891,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1940,7 +1943,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36AF6846-FE9C-4340-B6DD-E1C02448B082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,13 +1978,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>488016</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>307040</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1989,7 +1992,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD526011-714C-4DBD-B6A8-673BE0B9A83D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2044,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BDEEE3-9980-4D12-9AEC-98030418D8FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2139,7 +2142,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E3D1F5-D8B1-4815-ADCB-423B19E0FE6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2188,7 +2191,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADD3400-205A-44C3-9394-49DFCE0F26C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2237,7 +2240,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE321F7-0C1C-4141-B978-C9C59AF9403B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,7 +2284,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2355,7 +2358,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0775992-C78D-4C17-B895-527000A30877}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2696,57 +2699,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96" t="s">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="102" t="s">
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="102"/>
+      <c r="M2" s="124"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="102" t="s">
+      <c r="A3" s="117"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="102"/>
+      <c r="M3" s="124"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="102" t="s">
+      <c r="A4" s="117"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="102"/>
+      <c r="M4" s="124"/>
     </row>
     <row r="5" spans="1:13" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -2773,29 +2776,29 @@
       <c r="A8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
       <c r="E8" s="73" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="104" t="s">
+      <c r="G8" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104" t="s">
+      <c r="H8" s="108"/>
+      <c r="I8" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104" t="s">
+      <c r="J8" s="108"/>
+      <c r="K8" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="104"/>
+      <c r="L8" s="108"/>
       <c r="M8" s="73" t="s">
         <v>4</v>
       </c>
@@ -2804,86 +2807,86 @@
       <c r="A9" s="74">
         <v>1</v>
       </c>
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="114"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
       <c r="E9" s="72" t="s">
         <v>93</v>
       </c>
       <c r="F9" s="72">
         <v>985</v>
       </c>
-      <c r="G9" s="110"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="109" t="s">
+      <c r="G9" s="112"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="109"/>
+      <c r="L9" s="104"/>
       <c r="M9" s="73"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="74">
         <v>2</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="114"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="116"/>
       <c r="E10" s="72" t="s">
         <v>93</v>
       </c>
       <c r="F10" s="72">
         <v>985</v>
       </c>
-      <c r="G10" s="110"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="109" t="s">
+      <c r="G10" s="112"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="109"/>
+      <c r="L10" s="104"/>
       <c r="M10" s="73"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="74">
         <v>3</v>
       </c>
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="109" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="107"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="72" t="s">
         <v>93</v>
       </c>
       <c r="F11" s="72">
         <v>985</v>
       </c>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="109" t="s">
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="109"/>
+      <c r="L11" s="104"/>
       <c r="M11" s="71"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="74">
         <v>4</v>
       </c>
-      <c r="B12" s="115" t="s">
+      <c r="B12" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
       <c r="E12" s="72" t="s">
         <v>93</v>
       </c>
@@ -2891,58 +2894,58 @@
         <f>985*2</f>
         <v>1970</v>
       </c>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="109" t="s">
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="L12" s="109"/>
+      <c r="L12" s="104"/>
       <c r="M12" s="71"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="116" t="s">
+      <c r="A14" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="116" t="s">
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="116" t="s">
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="118"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="107"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="119" t="s">
+      <c r="A15" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="119" t="s">
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="119" t="s">
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="121"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="98"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
@@ -3005,25 +3008,25 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="122" t="s">
+      <c r="A20" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="122" t="s">
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="122" t="s">
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="124"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="101"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3036,19 +3039,12 @@
     <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="L4:M4"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
@@ -3065,12 +3061,19 @@
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
@@ -3104,51 +3107,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96" t="s">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="102" t="s">
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="102"/>
+      <c r="K2" s="124"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="102" t="s">
+      <c r="A3" s="117"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="102"/>
+      <c r="K3" s="124"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="102" t="s">
+      <c r="A4" s="117"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="102"/>
+      <c r="K4" s="124"/>
     </row>
     <row r="5" spans="1:11" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -3175,23 +3178,23 @@
       <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
       <c r="E8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="110" t="s">
+      <c r="F8" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="111"/>
-      <c r="H8" s="110" t="s">
+      <c r="G8" s="113"/>
+      <c r="H8" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="128"/>
-      <c r="J8" s="111"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="113"/>
       <c r="K8" s="24" t="s">
         <v>4</v>
       </c>
@@ -3200,46 +3203,46 @@
       <c r="A9" s="77">
         <v>1</v>
       </c>
-      <c r="B9" s="125" t="s">
+      <c r="B9" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="127"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="129"/>
       <c r="E9" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="125">
+      <c r="F9" s="127">
         <v>6</v>
       </c>
-      <c r="G9" s="127"/>
-      <c r="H9" s="125" t="s">
+      <c r="G9" s="129"/>
+      <c r="H9" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="126"/>
-      <c r="J9" s="127"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="129"/>
       <c r="K9" s="77"/>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="77">
         <v>2</v>
       </c>
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="127" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="127"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="129"/>
       <c r="E10" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="125">
+      <c r="F10" s="127">
         <v>4</v>
       </c>
-      <c r="G10" s="127"/>
-      <c r="H10" s="125" t="s">
+      <c r="G10" s="129"/>
+      <c r="H10" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="126"/>
-      <c r="J10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="129"/>
       <c r="K10" s="77" t="s">
         <v>117</v>
       </c>
@@ -3248,65 +3251,65 @@
       <c r="A11" s="77">
         <v>3</v>
       </c>
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="127" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="127"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="129"/>
       <c r="E11" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="125">
+      <c r="F11" s="127">
         <v>2</v>
       </c>
-      <c r="G11" s="127"/>
-      <c r="H11" s="125" t="s">
+      <c r="G11" s="129"/>
+      <c r="H11" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="126"/>
-      <c r="J11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="129"/>
       <c r="K11" s="77" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="116" t="s">
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="118"/>
-      <c r="H13" s="116" t="s">
+      <c r="G13" s="107"/>
+      <c r="H13" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="118"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="107"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="119" t="s">
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="121"/>
-      <c r="H14" s="119" t="s">
+      <c r="G14" s="98"/>
+      <c r="H14" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="121"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="98"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -3361,23 +3364,23 @@
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="122" t="s">
+      <c r="A19" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="123"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="122" t="s">
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="124"/>
-      <c r="H19" s="122" t="s">
+      <c r="G19" s="101"/>
+      <c r="H19" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="124"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="101"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3390,6 +3393,24 @@
     <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D2:I3"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="A19:E19"/>
@@ -3399,24 +3420,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D2:I3"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.6692913385826772" bottom="0" header="0" footer="0"/>
@@ -3428,10 +3431,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N63"/>
+  <dimension ref="A2:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3448,42 +3451,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="135" t="s">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="102" t="s">
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="102"/>
+      <c r="H2" s="124"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="102" t="s">
+      <c r="A3" s="117"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="102"/>
+      <c r="H3" s="124"/>
     </row>
     <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="102" t="s">
+      <c r="A4" s="117"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="102"/>
+      <c r="H4" s="124"/>
     </row>
     <row r="5" spans="1:8" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -3497,11 +3500,11 @@
       <c r="E6" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="142" t="s">
+      <c r="F6" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
     </row>
     <row r="7" spans="1:8" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
@@ -3551,7 +3554,7 @@
         <v>100</v>
       </c>
       <c r="F9" s="88"/>
-      <c r="G9" s="145" t="s">
+      <c r="G9" s="140" t="s">
         <v>145</v>
       </c>
       <c r="H9" s="68"/>
@@ -3570,10 +3573,10 @@
         <v>10500</v>
       </c>
       <c r="E10" s="90">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="F10" s="88"/>
-      <c r="G10" s="146"/>
+      <c r="G10" s="141"/>
       <c r="H10" s="68"/>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3590,7 +3593,7 @@
         <v>1500</v>
       </c>
       <c r="E11" s="90">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F11" s="88"/>
       <c r="G11" s="85"/>
@@ -3772,7 +3775,7 @@
         <v>500</v>
       </c>
       <c r="E20" s="90">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F20" s="88"/>
       <c r="G20" s="85"/>
@@ -3892,7 +3895,7 @@
         <v>500</v>
       </c>
       <c r="E26" s="90">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F26" s="88"/>
       <c r="G26" s="85"/>
@@ -3912,7 +3915,7 @@
         <v>500</v>
       </c>
       <c r="E27" s="90">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F27" s="88"/>
       <c r="G27" s="85"/>
@@ -3972,7 +3975,7 @@
         <v>500</v>
       </c>
       <c r="E30" s="90">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F30" s="88"/>
       <c r="G30" s="85"/>
@@ -3992,7 +3995,7 @@
         <v>500</v>
       </c>
       <c r="E31" s="90">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F31" s="88"/>
       <c r="G31" s="85"/>
@@ -4012,7 +4015,7 @@
         <v>1000</v>
       </c>
       <c r="E32" s="90">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F32" s="88"/>
       <c r="G32" s="85"/>
@@ -4032,7 +4035,7 @@
         <v>1500</v>
       </c>
       <c r="E33" s="90">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F33" s="88"/>
       <c r="G33" s="85"/>
@@ -4052,7 +4055,7 @@
         <v>500</v>
       </c>
       <c r="E34" s="90">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F34" s="88"/>
       <c r="G34" s="85"/>
@@ -4063,16 +4066,16 @@
         <v>27</v>
       </c>
       <c r="B35" s="93" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="95" t="s">
         <v>93</v>
       </c>
       <c r="D35" s="90">
         <v>500</v>
       </c>
       <c r="E35" s="90">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F35" s="88"/>
       <c r="G35" s="85"/>
@@ -4083,15 +4086,17 @@
         <v>28</v>
       </c>
       <c r="B36" s="93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C36" s="91" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="D36" s="90">
-        <v>590</v>
-      </c>
-      <c r="E36" s="90"/>
+        <v>500</v>
+      </c>
+      <c r="E36" s="90">
+        <v>0</v>
+      </c>
       <c r="F36" s="88"/>
       <c r="G36" s="85"/>
       <c r="H36" s="78"/>
@@ -4101,15 +4106,17 @@
         <v>29</v>
       </c>
       <c r="B37" s="93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C37" s="91" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="D37" s="90">
         <v>590</v>
       </c>
-      <c r="E37" s="90"/>
+      <c r="E37" s="90">
+        <v>0</v>
+      </c>
       <c r="F37" s="88"/>
       <c r="G37" s="85"/>
       <c r="H37" s="78"/>
@@ -4119,16 +4126,16 @@
         <v>30</v>
       </c>
       <c r="B38" s="93" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C38" s="91" t="s">
         <v>93</v>
       </c>
       <c r="D38" s="90">
-        <v>500</v>
+        <v>590</v>
       </c>
       <c r="E38" s="90">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F38" s="88"/>
       <c r="G38" s="85"/>
@@ -4138,97 +4145,107 @@
       <c r="A39" s="68">
         <v>31</v>
       </c>
-      <c r="B39" s="87" t="s">
-        <v>160</v>
+      <c r="B39" s="93" t="s">
+        <v>159</v>
       </c>
       <c r="C39" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="94">
-        <v>1</v>
-      </c>
-      <c r="E39" s="94">
-        <v>1</v>
+      <c r="D39" s="90">
+        <v>500</v>
+      </c>
+      <c r="E39" s="90">
+        <v>0</v>
       </c>
       <c r="F39" s="88"/>
       <c r="G39" s="85"/>
       <c r="H39" s="78"/>
     </row>
-    <row r="40" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="67"/>
-      <c r="B40" s="143"/>
-      <c r="C40" s="143"/>
-      <c r="D40" s="144"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="143"/>
-      <c r="H40" s="79"/>
+    <row r="40" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="68">
+        <v>32</v>
+      </c>
+      <c r="B40" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="94">
+        <v>1</v>
+      </c>
+      <c r="E40" s="94">
+        <v>0</v>
+      </c>
+      <c r="F40" s="88"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="78"/>
     </row>
     <row r="41" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="67"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="139"/>
+      <c r="F41" s="138"/>
+      <c r="G41" s="138"/>
       <c r="H41" s="79"/>
     </row>
-    <row r="42" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="61"/>
-      <c r="B42" s="141"/>
-      <c r="C42" s="141"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-    </row>
-    <row r="43" spans="1:8" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="131" t="s">
+    <row r="42" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="67"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="79"/>
+    </row>
+    <row r="43" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="61"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+    </row>
+    <row r="44" spans="1:8" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="131"/>
-      <c r="C43" s="131" t="s">
+      <c r="B44" s="144"/>
+      <c r="C44" s="144" t="s">
         <v>143</v>
       </c>
-      <c r="D43" s="131"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="133" t="s">
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="146" t="s">
         <v>78</v>
       </c>
-      <c r="G43" s="133"/>
-      <c r="H43" s="83" t="s">
+      <c r="G44" s="146"/>
+      <c r="H44" s="83" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="132" t="s">
+    <row r="45" spans="1:8" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="132"/>
-      <c r="C44" s="132" t="s">
+      <c r="B45" s="145"/>
+      <c r="C45" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="132"/>
-      <c r="E44" s="132"/>
-      <c r="F44" s="132" t="s">
+      <c r="D45" s="145"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="G44" s="132"/>
-      <c r="H44" s="82" t="s">
+      <c r="G45" s="145"/>
+      <c r="H45" s="82" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="62"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="62"/>
     </row>
     <row r="46" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A46" s="62"/>
@@ -4250,91 +4267,101 @@
       <c r="G47" s="64"/>
       <c r="H47" s="62"/>
     </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="132"/>
-      <c r="H48" s="132"/>
-    </row>
-    <row r="49" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="62"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="62"/>
-    </row>
-    <row r="50" spans="1:8" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="132" t="s">
+    <row r="48" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="62"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="62"/>
+    </row>
+    <row r="49" spans="1:8" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="145"/>
+      <c r="H49" s="145"/>
+    </row>
+    <row r="50" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="62"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="62"/>
+    </row>
+    <row r="51" spans="1:8" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="145" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="132"/>
-      <c r="C50" s="132" t="s">
+      <c r="B51" s="145"/>
+      <c r="C51" s="145" t="s">
         <v>144</v>
       </c>
-      <c r="D50" s="132"/>
-      <c r="E50" s="132"/>
-      <c r="F50" s="134" t="s">
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="G50" s="134"/>
-      <c r="H50" s="82" t="s">
+      <c r="G51" s="147"/>
+      <c r="H51" s="82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F52" s="130"/>
-      <c r="G52" s="130"/>
-      <c r="H52" s="130"/>
-    </row>
-    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="143"/>
+      <c r="G53" s="143"/>
+      <c r="H53" s="143"/>
+    </row>
     <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="C56" s="129" t="s">
+    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="C57" s="142" t="s">
         <v>109</v>
       </c>
-      <c r="D56" s="129"/>
-      <c r="E56" s="129"/>
-      <c r="F56" s="129"/>
-      <c r="G56" s="129"/>
-      <c r="H56" s="129"/>
-    </row>
-    <row r="57" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="D57" s="142"/>
+      <c r="E57" s="142"/>
+      <c r="F57" s="142"/>
+      <c r="G57" s="142"/>
+      <c r="H57" s="142"/>
+    </row>
     <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="H63" s="84" t="s">
+    <row r="59" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="H64" s="84" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F51:G51"/>
     <mergeCell ref="C2:F4"/>
     <mergeCell ref="A2:B4"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F50:G50"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="59" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4364,99 +4391,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="150"/>
-      <c r="B1" s="151"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="147" t="s">
+      <c r="A1" s="154"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="135"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="102" t="s">
+      <c r="E1" s="130"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="102"/>
+      <c r="H1" s="124"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="153"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="102" t="s">
+      <c r="A2" s="157"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="102"/>
+      <c r="H2" s="124"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="155"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="102" t="s">
+      <c r="A3" s="159"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="102"/>
+      <c r="H3" s="124"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108" t="s">
+      <c r="C5" s="103"/>
+      <c r="D5" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108" t="s">
+      <c r="G5" s="103"/>
+      <c r="H5" s="103" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="108"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="108"/>
+      <c r="H6" s="103"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="69">
         <v>1</v>
       </c>
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="149" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="164"/>
+      <c r="C7" s="150"/>
       <c r="D7" s="80" t="s">
         <v>122</v>
       </c>
@@ -4482,36 +4509,36 @@
       <c r="H8" s="70"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="162" t="s">
+      <c r="A9" s="148" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162" t="s">
+      <c r="B9" s="148"/>
+      <c r="C9" s="148" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162" t="s">
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="162"/>
+      <c r="H9" s="148"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="161" t="s">
+      <c r="A10" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="161"/>
-      <c r="C10" s="161" t="s">
+      <c r="B10" s="165"/>
+      <c r="C10" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161" t="s">
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="161"/>
+      <c r="H10" s="165"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
@@ -4524,34 +4551,27 @@
       <c r="H11" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="159" t="s">
+      <c r="A15" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="159"/>
-      <c r="C15" s="159" t="s">
+      <c r="B15" s="163"/>
+      <c r="C15" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="159"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159" t="s">
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="159"/>
+      <c r="H15" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="D1:F3"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="G14:H14"/>
@@ -4568,6 +4588,13 @@
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.31496062992125984" header="0.27559055118110237" footer="0.23622047244094491"/>
@@ -4597,42 +4624,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="168" t="s">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="169"/>
-      <c r="E2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="171"/>
       <c r="F2" s="32" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="173"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="174"/>
       <c r="F3" s="32" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="176"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="177"/>
       <c r="F4" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="167" t="s">
+      <c r="A5" s="168" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="167"/>
+      <c r="B5" s="168"/>
       <c r="F5" s="22" t="s">
         <v>45</v>
       </c>
@@ -4871,32 +4898,32 @@
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
-      <c r="E37" s="177" t="s">
+      <c r="E37" s="178" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="177"/>
+      <c r="F37" s="178"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="165" t="s">
+      <c r="B38" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="165"/>
+      <c r="C38" s="166"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="165" t="s">
+      <c r="E38" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="165"/>
+      <c r="F38" s="166"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="166" t="s">
+      <c r="B39" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="166"/>
+      <c r="C39" s="167"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="166" t="s">
+      <c r="E39" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="166"/>
+      <c r="F39" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4941,78 +4968,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="182" t="s">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="183" t="s">
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="192" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="184"/>
-      <c r="L2" s="185"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="194"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="183" t="s">
+      <c r="A3" s="117"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="192" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="184"/>
-      <c r="L3" s="185"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="194"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="182"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="182"/>
-      <c r="G4" s="182"/>
-      <c r="H4" s="182"/>
-      <c r="I4" s="182"/>
-      <c r="J4" s="183" t="s">
+      <c r="A4" s="117"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="192" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="184"/>
-      <c r="L4" s="185"/>
+      <c r="K4" s="193"/>
+      <c r="L4" s="194"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="190" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181" t="s">
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="190" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
+      <c r="G5" s="190"/>
+      <c r="H5" s="190"/>
+      <c r="I5" s="190"/>
+      <c r="J5" s="190"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="27"/>
@@ -5104,58 +5131,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="193" t="s">
+      <c r="A21" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="179" t="s">
+      <c r="B21" s="188" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="179" t="s">
+      <c r="C21" s="188" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="179" t="s">
+      <c r="D21" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="178" t="s">
+      <c r="E21" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="178" t="s">
+      <c r="F21" s="183" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178" t="s">
+      <c r="G21" s="183"/>
+      <c r="H21" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="178" t="s">
+      <c r="I21" s="183" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="178" t="s">
+      <c r="J21" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="188" t="s">
+      <c r="K21" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="186" t="s">
+      <c r="L21" s="179" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="193"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="178"/>
+      <c r="A22" s="187"/>
+      <c r="B22" s="188"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="183"/>
       <c r="F22" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="178"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="189"/>
-      <c r="L22" s="187"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="183"/>
+      <c r="K22" s="182"/>
+      <c r="L22" s="180"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
@@ -5200,45 +5227,45 @@
       <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="192" t="s">
+      <c r="D26" s="186" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="192"/>
-      <c r="F26" s="192"/>
-      <c r="G26" s="192"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="165" t="s">
+      <c r="A27" s="166" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="165"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165" t="s">
+      <c r="B27" s="166"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="166" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="165"/>
-      <c r="H27" s="165" t="s">
+      <c r="F27" s="166"/>
+      <c r="H27" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="165"/>
-      <c r="J27" s="165"/>
-      <c r="K27" s="165"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
+      <c r="K27" s="166"/>
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166" t="s">
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="166"/>
-      <c r="I28" s="166" t="s">
+      <c r="F28" s="167"/>
+      <c r="I28" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="166"/>
+      <c r="J28" s="167"/>
       <c r="K28" s="29"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5273,74 +5300,74 @@
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
-      <c r="B32" s="191" t="s">
+      <c r="B32" s="185" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="191"/>
-      <c r="D32" s="191"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="191"/>
-      <c r="G32" s="191"/>
-      <c r="H32" s="191"/>
-      <c r="I32" s="191"/>
-      <c r="J32" s="191"/>
-      <c r="K32" s="191"/>
+      <c r="C32" s="185"/>
+      <c r="D32" s="185"/>
+      <c r="E32" s="185"/>
+      <c r="F32" s="185"/>
+      <c r="G32" s="185"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="185"/>
+      <c r="J32" s="185"/>
+      <c r="K32" s="185"/>
     </row>
     <row r="33" spans="1:11" s="33" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="191" t="s">
+      <c r="A33" s="185" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="191"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="191"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="191"/>
-      <c r="G33" s="191"/>
-      <c r="H33" s="191"/>
-      <c r="I33" s="191"/>
-      <c r="J33" s="191"/>
-      <c r="K33" s="191"/>
+      <c r="B33" s="185"/>
+      <c r="C33" s="185"/>
+      <c r="D33" s="185"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="185"/>
+      <c r="G33" s="185"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="185"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="190" t="s">
+      <c r="A34" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="190"/>
-      <c r="C34" s="190"/>
-      <c r="D34" s="190"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="190"/>
-      <c r="H34" s="190"/>
-      <c r="I34" s="190"/>
-      <c r="J34" s="190"/>
-      <c r="K34" s="190"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="184"/>
+      <c r="D34" s="184"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="184"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="184"/>
+      <c r="J34" s="184"/>
+      <c r="K34" s="184"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="190" t="s">
+      <c r="A35" s="184" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="190"/>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="190"/>
+      <c r="B35" s="184"/>
+      <c r="C35" s="184"/>
+      <c r="D35" s="184"/>
+      <c r="E35" s="184"/>
+      <c r="F35" s="184"/>
+      <c r="G35" s="184"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="190" t="s">
+      <c r="A36" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="190"/>
-      <c r="C36" s="190"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="190"/>
-      <c r="G36" s="190"/>
+      <c r="B36" s="184"/>
+      <c r="C36" s="184"/>
+      <c r="D36" s="184"/>
+      <c r="E36" s="184"/>
+      <c r="F36" s="184"/>
+      <c r="G36" s="184"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -5348,6 +5375,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A2:B4"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="I21:I22"/>
@@ -5364,22 +5407,6 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.16" top="0.27" bottom="0.22" header="0.22" footer="0.16"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5412,62 +5439,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="206" t="s">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="200" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="183" t="s">
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="192" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="185"/>
+      <c r="K2" s="194"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="183" t="s">
+      <c r="A3" s="117"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="192" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="185"/>
+      <c r="K3" s="194"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="183" t="s">
+      <c r="A4" s="117"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="192" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="185"/>
+      <c r="K4" s="194"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="181" t="s">
+      <c r="A5" s="190" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="181"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="195"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -5481,12 +5508,12 @@
       <c r="E6" s="12"/>
       <c r="F6" s="17"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="208" t="s">
+      <c r="H6" s="202" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="208"/>
-      <c r="J6" s="208"/>
-      <c r="K6" s="208"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="202"/>
+      <c r="K6" s="202"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
@@ -5516,10 +5543,10 @@
       <c r="I7" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="202" t="s">
+      <c r="J7" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="203"/>
+      <c r="K7" s="197"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
@@ -5533,8 +5560,8 @@
       <c r="G8" s="44"/>
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="196"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="205"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
@@ -5548,8 +5575,8 @@
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="196"/>
+      <c r="J9" s="204"/>
+      <c r="K9" s="205"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
@@ -5563,8 +5590,8 @@
       <c r="G10" s="44"/>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="198"/>
+      <c r="J10" s="206"/>
+      <c r="K10" s="207"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
@@ -5578,8 +5605,8 @@
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="198"/>
+      <c r="J11" s="206"/>
+      <c r="K11" s="207"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
@@ -5593,8 +5620,8 @@
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="198"/>
+      <c r="J12" s="206"/>
+      <c r="K12" s="207"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
@@ -5608,14 +5635,14 @@
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="198"/>
+      <c r="J13" s="206"/>
+      <c r="K13" s="207"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="204" t="s">
+      <c r="A14" s="198" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="205"/>
+      <c r="B14" s="199"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -5623,44 +5650,35 @@
       <c r="G14" s="46"/>
       <c r="H14" s="47"/>
       <c r="I14" s="48"/>
-      <c r="J14" s="199"/>
-      <c r="K14" s="200"/>
+      <c r="J14" s="208"/>
+      <c r="K14" s="209"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="194" t="s">
+      <c r="A16" s="203" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="194"/>
-      <c r="C16" s="194"/>
+      <c r="B16" s="203"/>
+      <c r="C16" s="203"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="194" t="s">
+      <c r="E16" s="203" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194" t="s">
+      <c r="F16" s="203"/>
+      <c r="G16" s="203" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194" t="s">
+      <c r="H16" s="203"/>
+      <c r="I16" s="203" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="194"/>
-      <c r="K16" s="194"/>
+      <c r="J16" s="203"/>
+      <c r="K16" s="203"/>
       <c r="M16" s="50"/>
       <c r="N16" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:I4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
@@ -5672,6 +5690,15 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
@@ -5711,48 +5738,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96" t="s">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="183" t="s">
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="192" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="185"/>
+      <c r="J2" s="194"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="183" t="s">
+      <c r="A3" s="117"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="192" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="185"/>
+      <c r="J3" s="194"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
-      <c r="G4" s="212"/>
-      <c r="H4" s="213"/>
-      <c r="I4" s="183" t="s">
+      <c r="A4" s="117"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="192" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="185"/>
+      <c r="J4" s="194"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -5798,11 +5825,11 @@
       <c r="A8" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="209" t="s">
+      <c r="B8" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="209"/>
-      <c r="D8" s="209"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
       <c r="E8" s="54" t="s">
         <v>2</v>
       </c>
@@ -5812,174 +5839,174 @@
       <c r="G8" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="209" t="s">
+      <c r="H8" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="209"/>
-      <c r="J8" s="210"/>
+      <c r="I8" s="213"/>
+      <c r="J8" s="214"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55">
         <v>1</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="52"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="214"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="210"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="52"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="214"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="210"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="52"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="214"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="210"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="52"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="214"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="210"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="52"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="214"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="210"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="55">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="52"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="214"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="210"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="55">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="52"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="214"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="210"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="52"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="214"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="210"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="55">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="52"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="214"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="210"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="52"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="214"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="210"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56">
         <v>11</v>
       </c>
-      <c r="B19" s="215"/>
-      <c r="C19" s="215"/>
-      <c r="D19" s="215"/>
+      <c r="B19" s="211"/>
+      <c r="C19" s="211"/>
+      <c r="D19" s="211"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
       <c r="G19" s="58"/>
-      <c r="H19" s="215"/>
-      <c r="I19" s="215"/>
-      <c r="J19" s="216"/>
+      <c r="H19" s="211"/>
+      <c r="I19" s="211"/>
+      <c r="J19" s="212"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -5994,42 +6021,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="116" t="s">
+      <c r="A21" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="117"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117" t="s">
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117" t="s">
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="119"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="121"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="98"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -6039,9 +6066,9 @@
       <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -6051,9 +6078,9 @@
       <c r="A25" s="7"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -6063,9 +6090,9 @@
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -6073,6 +6100,38 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:H4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:F22"/>
@@ -6080,38 +6139,6 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:H4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Xuất Nhập KHO/Xuất Kho 2023/XK_LK_500_HUB_050123.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Xuất Nhập KHO/Xuất Kho 2023/XK_LK_500_HUB_050123.xlsx
@@ -474,9 +474,6 @@
     <t>Số: PXK : 02</t>
   </si>
   <si>
-    <t>Hà Nội, Ngày 05 Tháng 01 Năm 2023</t>
-  </si>
-  <si>
     <t>VT_CAP_C0603 2.2uF</t>
   </si>
   <si>
@@ -526,6 +523,9 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Hà Nội, Ngày 07 Tháng 01 Năm 2023</t>
   </si>
 </sst>
 </file>
@@ -3433,8 +3433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3501,7 +3501,7 @@
         <v>146</v>
       </c>
       <c r="F6" s="137" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="G6" s="137"/>
       <c r="H6" s="137"/>
@@ -3522,10 +3522,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F8" s="78" t="s">
         <v>120</v>
@@ -3584,7 +3584,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="91" t="s">
         <v>93</v>
@@ -3656,7 +3656,7 @@
         <v>124</v>
       </c>
       <c r="F14" s="88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G14" s="85"/>
       <c r="H14" s="78"/>
@@ -3672,10 +3672,10 @@
         <v>93</v>
       </c>
       <c r="D15" s="90">
-        <v>2600</v>
+        <v>2490</v>
       </c>
       <c r="E15" s="90">
-        <v>1600</v>
+        <v>1490</v>
       </c>
       <c r="F15" s="88"/>
       <c r="G15" s="85"/>
@@ -3726,7 +3726,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C18" s="91" t="s">
         <v>93</v>
@@ -3766,7 +3766,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C20" s="91" t="s">
         <v>93</v>
@@ -3866,7 +3866,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="91" t="s">
         <v>93</v>
@@ -3886,7 +3886,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C26" s="91" t="s">
         <v>93</v>
@@ -3906,7 +3906,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C27" s="91" t="s">
         <v>93</v>
@@ -3966,7 +3966,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C30" s="91" t="s">
         <v>93</v>
@@ -4046,16 +4046,16 @@
         <v>26</v>
       </c>
       <c r="B34" s="93" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C34" s="91" t="s">
         <v>93</v>
       </c>
       <c r="D34" s="90">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="E34" s="90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F34" s="88"/>
       <c r="G34" s="85"/>
@@ -4086,16 +4086,16 @@
         <v>28</v>
       </c>
       <c r="B36" s="93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C36" s="91" t="s">
         <v>93</v>
       </c>
       <c r="D36" s="90">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="E36" s="90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F36" s="88"/>
       <c r="G36" s="85"/>
@@ -4106,10 +4106,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C37" s="91" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D37" s="90">
         <v>590</v>
@@ -4126,7 +4126,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C38" s="91" t="s">
         <v>93</v>
@@ -4146,7 +4146,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="93" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C39" s="91" t="s">
         <v>93</v>
@@ -4166,7 +4166,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C40" s="91" t="s">
         <v>93</v>
